--- a/medicine/Mort/Cimetière_national_de_Séoul/Cimetière_national_de_Séoul.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Séoul/Cimetière_national_de_Séoul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_S%C3%A9oul</t>
+          <t>Cimetière_national_de_Séoul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cimetière national de Séoul (Hangeul : 국립서울현충원) est situé à Dongjak-dong, dans le district du Dongjak-gu, à Séoul en Corée du Sud. Lorsqu'il a été créé par le décret présidentiel de Syngman Rhee en 1956, il s'agissait du seul cimetière national du pays. Lorsque le cimetière a atteint sa capacité maximale au début des années 1970, le cimetière national de Daejeon a été créé, en 1976. Les deux cimetières avaient été surveillés par le ministère de la Défense nationale jusqu'en 2005, mais en 2006, le cimetière national de Daejeon a été transféré au ministère des Affaires des patriotes et des Anciens combattants.
-Le cimetière est réservé pour les anciens combattants coréens, y compris ceux qui sont morts dans le mouvement d'indépendance coréen, la Guerre de Corée et la Guerre du Vietnam[1].
-En août 2005, une visite de la délégation Nord-coréenne au cimetière a suscité une controverse. La délégation était menée par Kim Ki-Nam, et dénombrait 182 fonctionnaires. La visite n'a pas seulement suscité l'indignation parmi ceux qui s'opposent à des relations plus chaleureuses avec le Nord, mais a également soulevé la crainte qu'une délégation du Sud soit amenée à rendre hommage à Kim Il-sung à Pyongyang dans le futur[2].
+Le cimetière est réservé pour les anciens combattants coréens, y compris ceux qui sont morts dans le mouvement d'indépendance coréen, la Guerre de Corée et la Guerre du Vietnam.
+En août 2005, une visite de la délégation Nord-coréenne au cimetière a suscité une controverse. La délégation était menée par Kim Ki-Nam, et dénombrait 182 fonctionnaires. La visite n'a pas seulement suscité l'indignation parmi ceux qui s'opposent à des relations plus chaleureuses avec le Nord, mais a également soulevé la crainte qu'une délégation du Sud soit amenée à rendre hommage à Kim Il-sung à Pyongyang dans le futur.
 Le défunt président Kim Dae-Jung y a été enterré le 23 août 2009.
 Le Cimetière National de Séoul est près de la Station de Dongjak sur la Ligne 4 ou la Ligne 9 du métro de Séoul. Hormis quelques exceptions, le Cimetière National de Séoul est en libre accès.
 </t>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_S%C3%A9oul</t>
+          <t>Cimetière_national_de_Séoul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,15 @@
           <t>Personnes notables enterrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syngman Rhee – Président de la Corée – enterré en 1965
 Park Chung-hee – Président de la Corée – enterré en 1979
 Yuk Young-soo – épouse du Président Park – enterrée en 1974
 Kim Dae-jung – Président de la Corée – enterré en 2009
-Kim Young-sam – Président de la Corée – enterré en 2015[3]
+Kim Young-sam – Président de la Corée – enterré en 2015
 Lee Beom-seok – Premier Ministre – enterré en 1972
 Park Tae-joon – Fondateur de la POSCO – enterré en 2011
 Chae Myung-shin – Général du Corps des Marines de la République de Corée – enterré en 2013
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_S%C3%A9oul</t>
+          <t>Cimetière_national_de_Séoul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,12 +571,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attentat à la bombe à la porte du Cimetière national de Séoul
-Le 22 juin 1970, trois agents nord-coréens ont fait irruption dans le cimetière et ont y placé une bombe. Un agent a été tué lorsque la bombe a été accidentellement explosé[4],[5].
-Visite de la délégation nord-coréenne
-Le 14 août 2005, un groupe de délégation nord-coréenne, comprenant le Vice-Président du Comité nord-coréen de la paix et de la réunification, a visité le Cimetière national de Séoul.
-Kim Dae-jung
-En 2009, lorsque Kim Dae-jung est mort, il a été décidé de l'enterrer dans Séoul, et pas dans zone de Daejeon qui était le lieu prévu au départ[6].
+          <t>Attentat à la bombe à la porte du Cimetière national de Séoul</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 juin 1970, trois agents nord-coréens ont fait irruption dans le cimetière et ont y placé une bombe. Un agent a été tué lorsque la bombe a été accidentellement explosé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_national_de_Séoul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_national_de_S%C3%A9oul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Incidents et controverse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Visite de la délégation nord-coréenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 août 2005, un groupe de délégation nord-coréenne, comprenant le Vice-Président du Comité nord-coréen de la paix et de la réunification, a visité le Cimetière national de Séoul.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_national_de_Séoul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_national_de_S%C3%A9oul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Incidents et controverse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kim Dae-jung</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, lorsque Kim Dae-jung est mort, il a été décidé de l'enterrer dans Séoul, et pas dans zone de Daejeon qui était le lieu prévu au départ.
 </t>
         </is>
       </c>
